--- a/AAG/ToDo/RFP 304404 ToDo.xlsx
+++ b/AAG/ToDo/RFP 304404 ToDo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24477569-B06E-4104-8506-59DB5B9D97E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4D2CFD-652A-4D81-A546-9A22AF1C1E82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>discuss on conf call at 4.30pm cst</t>
         </r>
@@ -103,7 +103,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,6 +186,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -194,9 +197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,16 +482,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="120.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="120.5234375" customWidth="1"/>
+    <col min="3" max="3" width="23.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +505,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -519,8 +519,8 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -531,8 +531,8 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -543,11 +543,11 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -557,7 +557,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -571,7 +571,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -585,7 +585,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -599,7 +599,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -631,7 +631,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -655,7 +655,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -703,12 +703,12 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -716,152 +716,152 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>51</v>
       </c>

--- a/AAG/ToDo/RFP 304404 ToDo.xlsx
+++ b/AAG/ToDo/RFP 304404 ToDo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4D2CFD-652A-4D81-A546-9A22AF1C1E82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0076075-A422-4878-805A-64A42FD67ADB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -85,6 +85,36 @@
   </si>
   <si>
     <t>\CFMTA Docs\"Questions_and_Answers_#1.pdf". Read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compilation of word files for Exhibit F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Twitter App </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look into Facebook Graph API Access </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub - organize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mihir + Nikhil </t>
+  </si>
+  <si>
+    <t>Analysis of tools available (Cost/Adv/Disadv/Reliability etc)</t>
+  </si>
+  <si>
+    <t>Mihir</t>
+  </si>
+  <si>
+    <t>Sangeeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mihir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
   </si>
 </sst>
 </file>
@@ -482,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -611,41 +641,71 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43326</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43326</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43326</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43326</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43326</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
